--- a/server/src/uploads/excels/235403/exam.3.mini-test3.xlsx
+++ b/server/src/uploads/excels/235403/exam.3.mini-test3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Project\toeic_prep\server\src\uploads\excels\235403\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3331E8-58F8-41BE-AE89-12E02BD9B2D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177D9B4B-52A1-481C-BC35-1333F1EDBE2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25974" yWindow="-163" windowWidth="26301" windowHeight="14169" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1885,7 +1885,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1910,7 +1910,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2217,8 +2216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L101"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="K75" sqref="K75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -2257,7 +2256,7 @@
       <c r="K1" s="15" t="s">
         <v>526</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="15" t="s">
         <v>527</v>
       </c>
     </row>
@@ -4701,6 +4700,9 @@
       </c>
       <c r="J75" s="11" t="s">
         <v>28</v>
+      </c>
+      <c r="K75">
+        <v>7</v>
       </c>
       <c r="L75" t="s">
         <v>539</v>

--- a/server/src/uploads/excels/235403/exam.3.mini-test3.xlsx
+++ b/server/src/uploads/excels/235403/exam.3.mini-test3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Project\toeic_prep\server\src\uploads\excels\235403\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177D9B4B-52A1-481C-BC35-1333F1EDBE2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE658AF2-9BF7-4ABD-8EC5-D2EFDAA371C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="559">
   <si>
     <t>number</t>
   </si>
@@ -1730,59 +1730,104 @@
     <t>category</t>
   </si>
   <si>
-    <t>detail</t>
-  </si>
-  <si>
-    <t>inference</t>
-  </si>
-  <si>
-    <t>detail,inference</t>
-  </si>
-  <si>
-    <t>vocabulary</t>
-  </si>
-  <si>
-    <t>real_situation</t>
-  </si>
-  <si>
-    <t>connecting_ideas</t>
-  </si>
-  <si>
-    <t>main_idea</t>
-  </si>
-  <si>
-    <t>tone_and_purpose</t>
-  </si>
-  <si>
-    <t>tone_and_purpose,main_idea</t>
-  </si>
-  <si>
-    <t>grammar</t>
-  </si>
-  <si>
-    <t>grammar,vocabulary</t>
-  </si>
-  <si>
-    <t>text_completion</t>
-  </si>
-  <si>
-    <t>text_completion,grammar</t>
-  </si>
-  <si>
-    <t>text_completion,grammar,vocabulary</t>
-  </si>
-  <si>
-    <t>text_completion,vocabulary</t>
-  </si>
-  <si>
-    <t>text_completion,vocabulary,grammar</t>
+    <t>ActionDescription</t>
+  </si>
+  <si>
+    <t>PersonPosition</t>
+  </si>
+  <si>
+    <t>YesNoQuestion</t>
+  </si>
+  <si>
+    <t>WhQuestion</t>
+  </si>
+  <si>
+    <t>ConversationPurpose</t>
+  </si>
+  <si>
+    <t>RelationshipInference</t>
+  </si>
+  <si>
+    <t>EnvironmentSetting</t>
+  </si>
+  <si>
+    <t>DetailComprehension</t>
+  </si>
+  <si>
+    <t>MainTopicIdentification</t>
+  </si>
+  <si>
+    <t>DetailExtraction</t>
+  </si>
+  <si>
+    <t>SpeakerIntention</t>
+  </si>
+  <si>
+    <t>ImpliedInformation</t>
+  </si>
+  <si>
+    <t>ContextRecognition</t>
+  </si>
+  <si>
+    <t>VocabularyFill</t>
+  </si>
+  <si>
+    <t>ChoiceQuestion</t>
+  </si>
+  <si>
+    <t>EmotionIntention</t>
+  </si>
+  <si>
+    <t>OutcomePredict</t>
+  </si>
+  <si>
+    <t>GrammarStructure</t>
+  </si>
+  <si>
+    <t>TenseUsage</t>
+  </si>
+  <si>
+    <t>PrepositionChoice</t>
+  </si>
+  <si>
+    <t>VerbFormSelection</t>
+  </si>
+  <si>
+    <t>VocabularyInsertion</t>
+  </si>
+  <si>
+    <t>LogicalCompletion</t>
+  </si>
+  <si>
+    <t>SentenceRelationship</t>
+  </si>
+  <si>
+    <t>TextCoherence</t>
+  </si>
+  <si>
+    <t>MainIdea</t>
+  </si>
+  <si>
+    <t>DetailInformation</t>
+  </si>
+  <si>
+    <t>WordInference</t>
+  </si>
+  <si>
+    <t>AuthorPerspective</t>
+  </si>
+  <si>
+    <t>ComparativeAnalysis</t>
+  </si>
+  <si>
+    <t>InformationRelationship</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1831,6 +1876,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFAA9BF5"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1885,7 +1936,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1910,6 +1961,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2214,10 +2268,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L101"/>
+  <dimension ref="A1:L103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="K75" sqref="K75"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="L105" sqref="L105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -2260,7 +2314,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2292,11 +2346,11 @@
       <c r="K2">
         <v>1</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="16" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2327,7 +2381,7 @@
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.8" x14ac:dyDescent="0.25">
@@ -2361,7 +2415,7 @@
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -2395,7 +2449,7 @@
         <v>2</v>
       </c>
       <c r="L5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -2427,7 +2481,7 @@
         <v>2</v>
       </c>
       <c r="L6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -2459,10 +2513,10 @@
         <v>2</v>
       </c>
       <c r="L7" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15.8" x14ac:dyDescent="0.25">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2491,7 +2545,7 @@
         <v>2</v>
       </c>
       <c r="L8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -2522,11 +2576,11 @@
       <c r="K9">
         <v>2</v>
       </c>
-      <c r="L9" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15.8" x14ac:dyDescent="0.25">
+      <c r="L9" s="16" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2554,8 +2608,8 @@
       <c r="K10">
         <v>2</v>
       </c>
-      <c r="L10" t="s">
-        <v>529</v>
+      <c r="L10" s="16" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -2586,8 +2640,8 @@
       <c r="K11">
         <v>2</v>
       </c>
-      <c r="L11" t="s">
-        <v>529</v>
+      <c r="L11" s="16" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -2618,8 +2672,8 @@
       <c r="K12">
         <v>2</v>
       </c>
-      <c r="L12" t="s">
-        <v>529</v>
+      <c r="L12" s="16" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -2650,11 +2704,11 @@
       <c r="K13">
         <v>2</v>
       </c>
-      <c r="L13" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15.8" x14ac:dyDescent="0.25">
+      <c r="L13" s="16" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2682,11 +2736,11 @@
       <c r="K14">
         <v>2</v>
       </c>
-      <c r="L14" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="63" x14ac:dyDescent="0.25">
+      <c r="L14" s="16" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="65.25" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2714,11 +2768,11 @@
       <c r="K15">
         <v>2</v>
       </c>
-      <c r="L15" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="15.8" x14ac:dyDescent="0.25">
+      <c r="L15" s="16" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2750,11 +2804,11 @@
       <c r="K16">
         <v>3</v>
       </c>
-      <c r="L16" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="15.8" x14ac:dyDescent="0.25">
+      <c r="L16" s="16" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2784,11 +2838,11 @@
       <c r="K17">
         <v>3</v>
       </c>
-      <c r="L17" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="15.8" x14ac:dyDescent="0.25">
+      <c r="L17" s="16" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2818,8 +2872,8 @@
       <c r="K18">
         <v>3</v>
       </c>
-      <c r="L18" t="s">
-        <v>534</v>
+      <c r="L18" s="16" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -2853,10 +2907,10 @@
         <v>3</v>
       </c>
       <c r="L19" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="78.8" x14ac:dyDescent="0.25">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="81.55" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2887,7 +2941,7 @@
         <v>3</v>
       </c>
       <c r="L20" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -2921,10 +2975,10 @@
         <v>3</v>
       </c>
       <c r="L21" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="15.8" x14ac:dyDescent="0.25">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2954,11 +3008,11 @@
       <c r="K22">
         <v>3</v>
       </c>
-      <c r="L22" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="15.8" x14ac:dyDescent="0.25">
+      <c r="L22" s="16" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2988,11 +3042,11 @@
       <c r="K23">
         <v>3</v>
       </c>
-      <c r="L23" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="15.8" x14ac:dyDescent="0.25">
+      <c r="L23" s="16" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3022,11 +3076,11 @@
       <c r="K24">
         <v>3</v>
       </c>
-      <c r="L24" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="15.8" x14ac:dyDescent="0.25">
+      <c r="L24" s="16" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3056,11 +3110,11 @@
       <c r="K25">
         <v>3</v>
       </c>
-      <c r="L25" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="15.8" x14ac:dyDescent="0.25">
+      <c r="L25" s="16" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3090,8 +3144,8 @@
       <c r="K26">
         <v>3</v>
       </c>
-      <c r="L26" t="s">
-        <v>528</v>
+      <c r="L26" s="16" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -3124,11 +3178,11 @@
       <c r="K27">
         <v>3</v>
       </c>
-      <c r="L27" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="L27" s="16" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="48.9" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3158,11 +3212,11 @@
       <c r="K28">
         <v>3</v>
       </c>
-      <c r="L28" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="15.8" x14ac:dyDescent="0.25">
+      <c r="L28" s="16" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -3192,11 +3246,11 @@
       <c r="K29">
         <v>3</v>
       </c>
-      <c r="L29" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="15.8" x14ac:dyDescent="0.25">
+      <c r="L29" s="16" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -3226,8 +3280,8 @@
       <c r="K30">
         <v>3</v>
       </c>
-      <c r="L30" t="s">
-        <v>535</v>
+      <c r="L30" s="16" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -3260,8 +3314,8 @@
       <c r="K31">
         <v>3</v>
       </c>
-      <c r="L31" t="s">
-        <v>535</v>
+      <c r="L31" s="16" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -3294,8 +3348,8 @@
       <c r="K32">
         <v>3</v>
       </c>
-      <c r="L32" t="s">
-        <v>535</v>
+      <c r="L32" s="16" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="65.25" x14ac:dyDescent="0.3">
@@ -3328,8 +3382,8 @@
       <c r="K33">
         <v>3</v>
       </c>
-      <c r="L33" t="s">
-        <v>535</v>
+      <c r="L33" s="16" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="97.85" x14ac:dyDescent="0.3">
@@ -3362,8 +3416,8 @@
       <c r="K34">
         <v>4</v>
       </c>
-      <c r="L34" t="s">
-        <v>534</v>
+      <c r="L34" s="16" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -3396,8 +3450,8 @@
       <c r="K35">
         <v>4</v>
       </c>
-      <c r="L35" t="s">
-        <v>534</v>
+      <c r="L35" s="16" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="81.55" x14ac:dyDescent="0.3">
@@ -3430,8 +3484,8 @@
       <c r="K36">
         <v>4</v>
       </c>
-      <c r="L36" t="s">
-        <v>534</v>
+      <c r="L36" s="16" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="130.44999999999999" x14ac:dyDescent="0.3">
@@ -3466,8 +3520,8 @@
       <c r="K37">
         <v>4</v>
       </c>
-      <c r="L37" t="s">
-        <v>534</v>
+      <c r="L37" s="16" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -3500,8 +3554,8 @@
       <c r="K38">
         <v>4</v>
       </c>
-      <c r="L38" t="s">
-        <v>534</v>
+      <c r="L38" s="16" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="81.55" x14ac:dyDescent="0.3">
@@ -3534,8 +3588,8 @@
       <c r="K39">
         <v>4</v>
       </c>
-      <c r="L39" t="s">
-        <v>528</v>
+      <c r="L39" s="16" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -3568,8 +3622,8 @@
       <c r="K40">
         <v>4</v>
       </c>
-      <c r="L40" t="s">
-        <v>528</v>
+      <c r="L40" s="16" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -3602,8 +3656,8 @@
       <c r="K41">
         <v>4</v>
       </c>
-      <c r="L41" t="s">
-        <v>528</v>
+      <c r="L41" s="16" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -3636,8 +3690,8 @@
       <c r="K42">
         <v>4</v>
       </c>
-      <c r="L42" t="s">
-        <v>528</v>
+      <c r="L42" s="16" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -3670,8 +3724,8 @@
       <c r="K43">
         <v>4</v>
       </c>
-      <c r="L43" t="s">
-        <v>528</v>
+      <c r="L43" s="16" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -3704,8 +3758,8 @@
       <c r="K44">
         <v>4</v>
       </c>
-      <c r="L44" t="s">
-        <v>528</v>
+      <c r="L44" s="16" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -3738,8 +3792,8 @@
       <c r="K45">
         <v>4</v>
       </c>
-      <c r="L45" t="s">
-        <v>528</v>
+      <c r="L45" s="16" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -3772,8 +3826,8 @@
       <c r="K46">
         <v>4</v>
       </c>
-      <c r="L46" t="s">
-        <v>535</v>
+      <c r="L46" s="16" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -3806,8 +3860,8 @@
       <c r="K47">
         <v>4</v>
       </c>
-      <c r="L47" t="s">
-        <v>535</v>
+      <c r="L47" s="16" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -3840,8 +3894,8 @@
       <c r="K48">
         <v>4</v>
       </c>
-      <c r="L48" t="s">
-        <v>535</v>
+      <c r="L48" s="16" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -3874,8 +3928,8 @@
       <c r="K49">
         <v>4</v>
       </c>
-      <c r="L49" t="s">
-        <v>535</v>
+      <c r="L49" s="16" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -3908,8 +3962,8 @@
       <c r="K50">
         <v>4</v>
       </c>
-      <c r="L50" t="s">
-        <v>535</v>
+      <c r="L50" s="16" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -3942,8 +3996,8 @@
       <c r="K51">
         <v>4</v>
       </c>
-      <c r="L51" t="s">
-        <v>535</v>
+      <c r="L51" s="16" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -3976,8 +4030,8 @@
       <c r="K52">
         <v>5</v>
       </c>
-      <c r="L52" t="s">
-        <v>538</v>
+      <c r="L52" s="16" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -4008,8 +4062,8 @@
       <c r="K53">
         <v>5</v>
       </c>
-      <c r="L53" t="s">
-        <v>538</v>
+      <c r="L53" s="16" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -4040,8 +4094,8 @@
       <c r="K54">
         <v>5</v>
       </c>
-      <c r="L54" t="s">
-        <v>538</v>
+      <c r="L54" s="16" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -4072,8 +4126,8 @@
       <c r="K55">
         <v>5</v>
       </c>
-      <c r="L55" t="s">
-        <v>538</v>
+      <c r="L55" s="16" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -4104,8 +4158,8 @@
       <c r="K56">
         <v>5</v>
       </c>
-      <c r="L56" t="s">
-        <v>538</v>
+      <c r="L56" s="16" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -4136,8 +4190,8 @@
       <c r="K57">
         <v>5</v>
       </c>
-      <c r="L57" t="s">
-        <v>538</v>
+      <c r="L57" s="16" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -4168,8 +4222,8 @@
       <c r="K58">
         <v>5</v>
       </c>
-      <c r="L58" t="s">
-        <v>538</v>
+      <c r="L58" s="16" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -4200,8 +4254,8 @@
       <c r="K59">
         <v>5</v>
       </c>
-      <c r="L59" t="s">
-        <v>537</v>
+      <c r="L59" s="16" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -4232,8 +4286,8 @@
       <c r="K60">
         <v>5</v>
       </c>
-      <c r="L60" t="s">
-        <v>537</v>
+      <c r="L60" s="16" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -4264,8 +4318,8 @@
       <c r="K61">
         <v>5</v>
       </c>
-      <c r="L61" t="s">
-        <v>537</v>
+      <c r="L61" s="16" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -4296,8 +4350,8 @@
       <c r="K62">
         <v>5</v>
       </c>
-      <c r="L62" t="s">
-        <v>537</v>
+      <c r="L62" s="16" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -4328,8 +4382,8 @@
       <c r="K63">
         <v>5</v>
       </c>
-      <c r="L63" t="s">
-        <v>537</v>
+      <c r="L63" s="16" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -4360,8 +4414,8 @@
       <c r="K64">
         <v>5</v>
       </c>
-      <c r="L64" t="s">
-        <v>539</v>
+      <c r="L64" s="16" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -4392,8 +4446,8 @@
       <c r="K65">
         <v>5</v>
       </c>
-      <c r="L65" t="s">
-        <v>539</v>
+      <c r="L65" s="16" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
@@ -4426,8 +4480,8 @@
       <c r="K66">
         <v>6</v>
       </c>
-      <c r="L66" t="s">
-        <v>543</v>
+      <c r="L66" s="16" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -4456,8 +4510,8 @@
       <c r="K67">
         <v>6</v>
       </c>
-      <c r="L67" t="s">
-        <v>542</v>
+      <c r="L67" s="16" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -4486,8 +4540,8 @@
       <c r="K68">
         <v>6</v>
       </c>
-      <c r="L68" t="s">
-        <v>542</v>
+      <c r="L68" s="16" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
@@ -4518,8 +4572,8 @@
       <c r="K69">
         <v>6</v>
       </c>
-      <c r="L69" t="s">
-        <v>542</v>
+      <c r="L69" s="16" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -4548,8 +4602,8 @@
       <c r="K70">
         <v>6</v>
       </c>
-      <c r="L70" t="s">
-        <v>542</v>
+      <c r="L70" s="16" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -4578,8 +4632,8 @@
       <c r="K71">
         <v>6</v>
       </c>
-      <c r="L71" t="s">
-        <v>542</v>
+      <c r="L71" s="16" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
@@ -4610,8 +4664,8 @@
       <c r="K72">
         <v>6</v>
       </c>
-      <c r="L72" t="s">
-        <v>541</v>
+      <c r="L72" s="16" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -4640,8 +4694,8 @@
       <c r="K73">
         <v>6</v>
       </c>
-      <c r="L73" t="s">
-        <v>540</v>
+      <c r="L73" s="16" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -4670,8 +4724,8 @@
       <c r="K74">
         <v>6</v>
       </c>
-      <c r="L74" t="s">
-        <v>540</v>
+      <c r="L74" s="16" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
@@ -4704,8 +4758,8 @@
       <c r="K75">
         <v>7</v>
       </c>
-      <c r="L75" t="s">
-        <v>539</v>
+      <c r="L75" s="16" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -4736,8 +4790,8 @@
       <c r="K76">
         <v>7</v>
       </c>
-      <c r="L76" t="s">
-        <v>534</v>
+      <c r="L76" s="16" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -4768,8 +4822,8 @@
       <c r="K77">
         <v>7</v>
       </c>
-      <c r="L77" t="s">
-        <v>534</v>
+      <c r="L77" s="16" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
@@ -4802,8 +4856,8 @@
       <c r="K78">
         <v>7</v>
       </c>
-      <c r="L78" t="s">
-        <v>528</v>
+      <c r="L78" s="16" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -4834,8 +4888,8 @@
       <c r="K79">
         <v>7</v>
       </c>
-      <c r="L79" t="s">
-        <v>533</v>
+      <c r="L79" s="16" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -4866,8 +4920,8 @@
       <c r="K80">
         <v>7</v>
       </c>
-      <c r="L80" t="s">
-        <v>533</v>
+      <c r="L80" s="16" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="228.25" x14ac:dyDescent="0.3">
@@ -4898,8 +4952,8 @@
       <c r="K81">
         <v>7</v>
       </c>
-      <c r="L81" t="s">
-        <v>533</v>
+      <c r="L81" s="16" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -4930,8 +4984,8 @@
       <c r="K82">
         <v>7</v>
       </c>
-      <c r="L82" t="s">
-        <v>533</v>
+      <c r="L82" s="16" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
@@ -4964,8 +5018,8 @@
       <c r="K83">
         <v>7</v>
       </c>
-      <c r="L83" t="s">
-        <v>533</v>
+      <c r="L83" s="16" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -4996,8 +5050,8 @@
       <c r="K84">
         <v>7</v>
       </c>
-      <c r="L84" t="s">
-        <v>535</v>
+      <c r="L84" s="16" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -5028,8 +5082,8 @@
       <c r="K85">
         <v>7</v>
       </c>
-      <c r="L85" t="s">
-        <v>535</v>
+      <c r="L85" s="16" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -5060,8 +5114,8 @@
       <c r="K86">
         <v>7</v>
       </c>
-      <c r="L86" t="s">
-        <v>535</v>
+      <c r="L86" s="16" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -5092,8 +5146,8 @@
       <c r="K87">
         <v>7</v>
       </c>
-      <c r="L87" t="s">
-        <v>535</v>
+      <c r="L87" s="16" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
@@ -5126,8 +5180,8 @@
       <c r="K88">
         <v>7</v>
       </c>
-      <c r="L88" t="s">
-        <v>535</v>
+      <c r="L88" s="16" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -5158,8 +5212,8 @@
       <c r="K89">
         <v>7</v>
       </c>
-      <c r="L89" t="s">
-        <v>535</v>
+      <c r="L89" s="16" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="114.15" x14ac:dyDescent="0.3">
@@ -5190,8 +5244,8 @@
       <c r="K90">
         <v>7</v>
       </c>
-      <c r="L90" t="s">
-        <v>535</v>
+      <c r="L90" s="16" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -5222,8 +5276,8 @@
       <c r="K91">
         <v>7</v>
       </c>
-      <c r="L91" t="s">
-        <v>535</v>
+      <c r="L91" s="16" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
@@ -5256,8 +5310,8 @@
       <c r="K92">
         <v>7</v>
       </c>
-      <c r="L92" t="s">
-        <v>535</v>
+      <c r="L92" s="16" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -5288,8 +5342,8 @@
       <c r="K93">
         <v>7</v>
       </c>
-      <c r="L93" t="s">
-        <v>535</v>
+      <c r="L93" s="16" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="94" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -5320,8 +5374,8 @@
       <c r="K94">
         <v>7</v>
       </c>
-      <c r="L94" t="s">
-        <v>535</v>
+      <c r="L94" s="16" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
@@ -5354,8 +5408,8 @@
       <c r="K95">
         <v>7</v>
       </c>
-      <c r="L95" t="s">
-        <v>535</v>
+      <c r="L95" s="16" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="130.44999999999999" x14ac:dyDescent="0.3">
@@ -5386,8 +5440,8 @@
       <c r="K96">
         <v>7</v>
       </c>
-      <c r="L96" t="s">
-        <v>535</v>
+      <c r="L96" s="16" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -5418,8 +5472,8 @@
       <c r="K97">
         <v>7</v>
       </c>
-      <c r="L97" t="s">
-        <v>535</v>
+      <c r="L97" s="16" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
@@ -5452,8 +5506,8 @@
       <c r="K98">
         <v>7</v>
       </c>
-      <c r="L98" t="s">
-        <v>535</v>
+      <c r="L98" s="16" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="99" spans="1:12" ht="81.55" x14ac:dyDescent="0.3">
@@ -5484,8 +5538,8 @@
       <c r="K99">
         <v>7</v>
       </c>
-      <c r="L99" t="s">
-        <v>535</v>
+      <c r="L99" s="16" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
@@ -5518,8 +5572,8 @@
       <c r="K100">
         <v>7</v>
       </c>
-      <c r="L100" t="s">
-        <v>535</v>
+      <c r="L100" s="16" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="101" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
@@ -5550,9 +5604,15 @@
       <c r="K101">
         <v>7</v>
       </c>
-      <c r="L101" t="s">
-        <v>535</v>
-      </c>
+      <c r="L101" s="16" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L102" s="16"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L103" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
